--- a/medicine/Mort/Waldfriedhof_Heerstraße/Waldfriedhof_Heerstraße.xlsx
+++ b/medicine/Mort/Waldfriedhof_Heerstraße/Waldfriedhof_Heerstraße.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Waldfriedhof_Heerstra%C3%9Fe</t>
+          <t>Waldfriedhof_Heerstraße</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Waldfriedhof Heerstraße (litt. cimetière boisé de la Heerstraße) est un cimetière boisé municipal berlinois situé dans le quartier de Westend à Charlottenbourg-Wilmersdorf. Il occupe une superficie de 129 093 mètres carrés[1].
+Le Waldfriedhof Heerstraße (litt. cimetière boisé de la Heerstraße) est un cimetière boisé municipal berlinois situé dans le quartier de Westend à Charlottenbourg-Wilmersdorf. Il occupe une superficie de 129 093 mètres carrés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Waldfriedhof_Heerstra%C3%9Fe</t>
+          <t>Waldfriedhof_Heerstraße</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière ne se trouve pas, comme son nom semble l'indiquer, sur la Heerstraße, mais à quelques centaines de mètres au nord de celle-ci autour du Sausuhlensee aux abords du stade olympique. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Waldfriedhof_Heerstra%C3%9Fe</t>
+          <t>Waldfriedhof_Heerstraße</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été construit entre 1921 et 1924 pour les besoins des habitants du lotissement de la Heerstraße, d'où son nom.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Waldfriedhof_Heerstra%C3%9Fe</t>
+          <t>Waldfriedhof_Heerstraße</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wilhelm Ahrens (1878–1956), conseiller municipal, Stadtältester von Berlin
@@ -756,7 +774,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Waldfriedhof_Heerstra%C3%9Fe</t>
+          <t>Waldfriedhof_Heerstraße</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -774,7 +792,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La station de métro Olympia-Stadion, où passe la ligne 2 du métro de Berlin, est située devant le cimetière.
 </t>
